--- a/kairos.xlsx
+++ b/kairos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Browser</t>
   </si>
@@ -32,34 +32,16 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>120.0.6099.225</t>
+    <t>121.0.6167.86</t>
   </si>
   <si>
-    <t>https://kairostech.com/about-us/</t>
+    <t>https://kairostech.com/digital-application-development/</t>
   </si>
   <si>
-    <t>About Us | Kairos Technologies</t>
+    <t>Digital Application Development | Kairos Technologies</t>
   </si>
   <si>
-    <t>29.01.2024.11.23.27</t>
-  </si>
-  <si>
-    <t>https://kairostech.com/robotic-process-automation/</t>
-  </si>
-  <si>
-    <t>Intelligent Robotic Process Automation | Kairos Technologies</t>
-  </si>
-  <si>
-    <t>29.01.2024.11.23.31</t>
-  </si>
-  <si>
-    <t>https://klabs.kairostech.com/insights/</t>
-  </si>
-  <si>
-    <t>Insights | Kairos Technologies</t>
-  </si>
-  <si>
-    <t>29.01.2024.11.23.39</t>
+    <t>02-02-2024 16:11:16</t>
   </si>
 </sst>
 </file>
@@ -104,16 +86,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="48.40625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="55.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -150,40 +130,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/kairos.xlsx
+++ b/kairos.xlsx
@@ -35,13 +35,13 @@
     <t>121.0.6167.86</t>
   </si>
   <si>
-    <t>https://kairostech.com/digital-application-development/</t>
+    <t>https://klabs.kairostech.com/insights/</t>
   </si>
   <si>
-    <t>Digital Application Development | Kairos Technologies</t>
+    <t>Insights | Kairos Technologies</t>
   </si>
   <si>
-    <t>02-02-2024 16:11:16</t>
+    <t>02-02-2024 17:31:27</t>
   </si>
 </sst>
 </file>
